--- a/Milestone1/ER.xlsx
+++ b/Milestone1/ER.xlsx
@@ -87,7 +87,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
